--- a/Combinacion/Bitacora_Fisica_2_NRC_263_Segundo_Parcial.xlsx
+++ b/Combinacion/Bitacora_Fisica_2_NRC_263_Segundo_Parcial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Cuatrimestral\Fisica_2_BC\Combinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A89637-F11F-4D49-8E9D-D8E352FD73EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF4064-E987-4F87-B53F-B21CBD21FFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="617" firstSheet="2" activeTab="6" xr2:uid="{8040CDE1-419C-4E72-BF10-A9E438B6A516}"/>
   </bookViews>
@@ -3726,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB33A7C-1A36-4871-8250-6A73A2213118}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6269,17 +6269,62 @@
       <c r="D37" t="s">
         <v>136</v>
       </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
       <c r="T37" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V37" s="4">
         <f t="shared" si="2"/>
-        <v>0.66666666666666607</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -6792,17 +6837,62 @@
       <c r="D45" t="s">
         <v>161</v>
       </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
       <c r="T45" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U45" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="V45" s="4">
         <f t="shared" si="2"/>
-        <v>0.66666666666666607</v>
+        <v>7.3333333333333321</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -10612,10 +10702,11 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6195" ySplit="900" topLeftCell="X33" activePane="bottomLeft"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
-      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
+      <pane xSplit="6195" ySplit="900" topLeftCell="P13" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10842,11 +10933,11 @@
         <v>8.3039772727272734</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" ref="U3:U48" si="5">SUM(S3,T3)/2</f>
-        <v>4.1519886363636367</v>
+        <v>7.801988636363637</v>
       </c>
       <c r="V3" s="1">
         <v>7</v>
@@ -10860,7 +10951,7 @@
       </c>
       <c r="Y3" s="4">
         <f>U3*0.7+X3*0.3</f>
-        <v>5.006392045454545</v>
+        <v>7.5613920454545465</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12290,7 +12381,7 @@
         <v>6</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(S20,T20)/2</f>
         <v>6.5</v>
       </c>
       <c r="V20" s="1">
@@ -13052,11 +13143,11 @@
         <v>9.875</v>
       </c>
       <c r="T29" s="4">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="5"/>
-        <v>4.9375</v>
+        <v>9.2874999999999996</v>
       </c>
       <c r="V29" s="1">
         <v>9</v>
@@ -13070,7 +13161,7 @@
       </c>
       <c r="Y29" s="4">
         <f t="shared" si="7"/>
-        <v>6.3062500000000004</v>
+        <v>9.3512500000000003</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -13955,43 +14046,43 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="1">
         <v>5</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="0"/>
-        <v>9.5500000000000007</v>
+        <v>14.55</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="1"/>
-        <v>5.96875</v>
+        <v>9.09375</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="3"/>
-        <v>1.3636363636363635</v>
+        <v>3</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="4"/>
-        <v>7.3323863636363633</v>
+        <v>10</v>
       </c>
       <c r="T40" s="4">
         <v>6</v>
       </c>
       <c r="U40" s="4">
         <f t="shared" si="5"/>
-        <v>6.6661931818181817</v>
+        <v>8</v>
       </c>
       <c r="V40" s="1">
         <v>10</v>
@@ -14005,7 +14096,7 @@
       </c>
       <c r="Y40" s="4">
         <f t="shared" si="7"/>
-        <v>7.666335227272727</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
